--- a/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/08,25/07,08,25 ПОКОМ ЗПФ филиалы/Приложение 1 07.08.25(нов).xlsx
+++ b/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/08,25/07,08,25 ПОКОМ ЗПФ филиалы/Приложение 1 07.08.25(нов).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\ДП. График работы с оптовиками-колбаса\КС\Лена Гаврилова\Информационные письма\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\заказы\статистика филиалы\2025\08,25\07,08,25 ПОКОМ ЗПФ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29100DF-E670-4E19-BCE4-471B425E1155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПГП 2-й список" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,10 +23,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ПГП 2-й список'!$A$1:$I$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Приложение 1'!$A$3:$E$48</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -381,7 +388,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -7346,7 +7353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8242,7 +8249,7 @@
       <c r="G30" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I27"/>
+  <autoFilter ref="A1:I27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A30:D30"/>
@@ -8253,7 +8260,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -8291,7 +8299,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>70</v>
       </c>
@@ -8308,7 +8316,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>70</v>
       </c>
@@ -8325,7 +8333,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>70</v>
       </c>
@@ -8342,7 +8350,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>70</v>
       </c>
@@ -8359,7 +8367,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>70</v>
       </c>
@@ -8376,7 +8384,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>70</v>
       </c>
@@ -8393,7 +8401,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>70</v>
       </c>
@@ -8410,7 +8418,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>70</v>
       </c>
@@ -8427,7 +8435,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>70</v>
       </c>
@@ -8444,7 +8452,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>70</v>
       </c>
@@ -8461,7 +8469,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>70</v>
       </c>
@@ -8478,7 +8486,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>70</v>
       </c>
@@ -8495,7 +8503,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>70</v>
       </c>
@@ -8512,7 +8520,7 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>70</v>
       </c>
@@ -8529,7 +8537,7 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>70</v>
       </c>
@@ -8546,7 +8554,7 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>70</v>
       </c>
@@ -8563,7 +8571,7 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>70</v>
       </c>
@@ -8580,7 +8588,7 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>70</v>
       </c>
@@ -8597,7 +8605,7 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>70</v>
       </c>
@@ -8614,7 +8622,7 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>70</v>
       </c>
@@ -8631,7 +8639,7 @@
         <v>45876</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>70</v>
       </c>
@@ -8648,7 +8656,7 @@
         <v>45877</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>70</v>
       </c>
@@ -8665,7 +8673,7 @@
         <v>45877</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>70</v>
       </c>
@@ -9060,8 +9068,13 @@
       <c r="C62" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E48">
-    <sortState ref="A4:E48">
+  <autoFilter ref="A3:E48" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="4">
+      <filters>
+        <dateGroupItem year="2025" month="8" day="15" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E48">
       <sortCondition ref="E3:E48"/>
     </sortState>
   </autoFilter>
